--- a/results/Protein Embedding.xlsx
+++ b/results/Protein Embedding.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="NN Classifier" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Skip-GNN" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="38">
   <si>
     <t>Accuracy</t>
   </si>
@@ -139,6 +138,9 @@
   </si>
   <si>
     <t>CTD</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
@@ -221,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -232,6 +234,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,7 +279,68 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Protein</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG" baseline="0"/>
+              <a:t> Embeddings</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -288,7 +356,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AAC</c:v>
+                  <c:v>APAAC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -339,25 +407,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.9002</c:v>
+                  <c:v>0.90290000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92510000000000003</c:v>
+                  <c:v>0.92910000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87529999999999997</c:v>
+                  <c:v>0.87670000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88149999999999995</c:v>
+                  <c:v>0.88300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90269999999999995</c:v>
+                  <c:v>0.90539999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95830000000000004</c:v>
+                  <c:v>0.95699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93910000000000005</c:v>
+                  <c:v>0.93689999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,7 +445,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DPC</c:v>
+                  <c:v>AAC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -428,25 +496,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.66520000000000001</c:v>
+                  <c:v>0.9002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56950000000000001</c:v>
+                  <c:v>0.92510000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76100000000000001</c:v>
+                  <c:v>0.87529999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46189999999999998</c:v>
+                  <c:v>0.88149999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49890000000000001</c:v>
+                  <c:v>0.90269999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95179999999999998</c:v>
+                  <c:v>0.95830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94779999999999998</c:v>
+                  <c:v>0.93910000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,7 +534,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C/T/D</c:v>
+                  <c:v>QSOrder</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -517,25 +585,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.88029999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.92510000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.83540000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.84899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26669999999999999</c:v>
+                  <c:v>0.88539999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67520000000000002</c:v>
+                  <c:v>0.93759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64100000000000001</c:v>
+                  <c:v>0.91180000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -555,7 +623,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QSOrder</c:v>
+                  <c:v>NMBroto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -606,25 +674,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.88029999999999997</c:v>
+                  <c:v>0.83389999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92510000000000003</c:v>
+                  <c:v>0.86409999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83540000000000003</c:v>
+                  <c:v>0.80359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84899999999999998</c:v>
+                  <c:v>0.81520000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88539999999999996</c:v>
+                  <c:v>0.8387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93759999999999999</c:v>
+                  <c:v>0.88690000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91180000000000005</c:v>
+                  <c:v>0.84330000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,7 +712,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>APAAC</c:v>
+                  <c:v>CT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -695,25 +763,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.90290000000000004</c:v>
+                  <c:v>0.82089999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92910000000000004</c:v>
+                  <c:v>0.91349999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87670000000000003</c:v>
+                  <c:v>0.72829999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88300000000000001</c:v>
+                  <c:v>0.82699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90539999999999998</c:v>
+                  <c:v>0.85350000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95699999999999996</c:v>
+                  <c:v>0.9476</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93689999999999996</c:v>
+                  <c:v>0.94210000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,7 +801,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CT</c:v>
+                  <c:v>DPC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -784,25 +852,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.82089999999999996</c:v>
+                  <c:v>0.66520000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91349999999999998</c:v>
+                  <c:v>0.56950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72829999999999995</c:v>
+                  <c:v>0.76100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82699999999999996</c:v>
+                  <c:v>0.46189999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85350000000000004</c:v>
+                  <c:v>0.49890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9476</c:v>
+                  <c:v>0.95179999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94210000000000005</c:v>
+                  <c:v>0.94779999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,7 +890,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NMBroto</c:v>
+                  <c:v>C/T/D</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -875,25 +943,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.83389999999999997</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86409999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80359999999999998</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81520000000000004</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8387</c:v>
+                  <c:v>0.26669999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88690000000000002</c:v>
+                  <c:v>0.67520000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84330000000000005</c:v>
+                  <c:v>0.64100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,15 +1718,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1943,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,26 +2038,26 @@
     <col min="20" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2013,239 +2081,263 @@
       <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="F4">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.93689999999999996</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0.9002</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>0.92510000000000003</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.87529999999999997</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>0.88149999999999995</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>0.90269999999999995</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>0.95830000000000004</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>0.93910000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10">
+        <v>100</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="K6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>240</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.8387</v>
+      </c>
+      <c r="I7">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>343</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="I8">
+        <v>0.9476</v>
+      </c>
+      <c r="J8">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B9">
         <v>400</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D9">
         <v>0.66520000000000001</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <v>0.56950000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F9">
         <v>0.76100000000000001</v>
       </c>
-      <c r="G5">
+      <c r="G9">
         <v>0.46189999999999998</v>
       </c>
-      <c r="H5">
+      <c r="H9">
         <v>0.49890000000000001</v>
       </c>
-      <c r="I5">
+      <c r="I9">
         <v>0.95179999999999998</v>
       </c>
-      <c r="J5">
+      <c r="J9">
         <v>0.94779999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="K9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B10">
         <f>SUM(39+39+195)</f>
         <v>273</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="E6">
+      <c r="E10">
         <v>0.4</v>
       </c>
-      <c r="F6">
+      <c r="F10">
         <v>0.6</v>
       </c>
-      <c r="G6">
+      <c r="G10">
         <v>0.2</v>
       </c>
-      <c r="H6">
+      <c r="H10">
         <v>0.26669999999999999</v>
       </c>
-      <c r="I6">
+      <c r="I10">
         <v>0.67520000000000002</v>
       </c>
-      <c r="J6">
+      <c r="J10">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>0.88029999999999997</v>
-      </c>
-      <c r="E7">
-        <v>0.92510000000000003</v>
-      </c>
-      <c r="F7">
-        <v>0.83540000000000003</v>
-      </c>
-      <c r="G7">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="H7">
-        <v>0.88539999999999996</v>
-      </c>
-      <c r="I7">
-        <v>0.93759999999999999</v>
-      </c>
-      <c r="J7">
-        <v>0.91180000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>0.90290000000000004</v>
-      </c>
-      <c r="E8">
-        <v>0.92910000000000004</v>
-      </c>
-      <c r="F8">
-        <v>0.87670000000000003</v>
-      </c>
-      <c r="G8">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="H8">
-        <v>0.90539999999999998</v>
-      </c>
-      <c r="I8">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="J8">
-        <v>0.93689999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>343</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>0.82089999999999996</v>
-      </c>
-      <c r="E9">
-        <v>0.91349999999999998</v>
-      </c>
-      <c r="F9">
-        <v>0.72829999999999995</v>
-      </c>
-      <c r="G9">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="H9">
-        <v>0.85350000000000004</v>
-      </c>
-      <c r="I9">
-        <v>0.9476</v>
-      </c>
-      <c r="J9">
-        <v>0.94210000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>240</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>0.83389999999999997</v>
-      </c>
-      <c r="E10">
-        <v>0.86409999999999998</v>
-      </c>
-      <c r="F10">
-        <v>0.80359999999999998</v>
-      </c>
-      <c r="G10">
-        <v>0.81520000000000004</v>
-      </c>
-      <c r="H10">
-        <v>0.8387</v>
-      </c>
-      <c r="I10">
-        <v>0.88690000000000002</v>
-      </c>
-      <c r="J10">
-        <v>0.84330000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2309,7 +2401,7 @@
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2341,7 +2433,7 @@
         <v>0.52329999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2685,6 +2777,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:K10">
+    <sortCondition ref="K4:K10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2694,7 +2789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -3405,31 +3500,31 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <f>MIN(C3:C9)</f>
+        <f t="shared" ref="C11:I11" si="0">MIN(C3:C9)</f>
         <v>0.92810000000000004</v>
       </c>
       <c r="D11">
-        <f>MIN(D3:D9)</f>
+        <f t="shared" si="0"/>
         <v>0.89549999999999996</v>
       </c>
       <c r="E11">
-        <f>MIN(E3:E9)</f>
+        <f t="shared" si="0"/>
         <v>0.95420000000000005</v>
       </c>
       <c r="F11">
-        <f>MIN(F3:F9)</f>
+        <f t="shared" si="0"/>
         <v>0.95130000000000003</v>
       </c>
       <c r="G11">
-        <f>MIN(G3:G9)</f>
+        <f t="shared" si="0"/>
         <v>0.92559999999999998</v>
       </c>
       <c r="H11">
-        <f>MIN(H3:H9)</f>
+        <f t="shared" si="0"/>
         <v>0.98499999999999999</v>
       </c>
       <c r="I11">
-        <f>MIN(I3:I9)</f>
+        <f t="shared" si="0"/>
         <v>0.98399999999999999</v>
       </c>
     </row>
@@ -3438,31 +3533,31 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <f>MAX(C3:C9)</f>
+        <f t="shared" ref="C12:I12" si="1">MAX(C3:C9)</f>
         <v>0.94189999999999996</v>
       </c>
       <c r="D12">
-        <f>MAX(D3:D9)</f>
+        <f t="shared" si="1"/>
         <v>0.92020000000000002</v>
       </c>
       <c r="E12">
-        <f>MAX(E3:E9)</f>
+        <f t="shared" si="1"/>
         <v>0.96479999999999999</v>
       </c>
       <c r="F12">
-        <f>MAX(F3:F9)</f>
+        <f t="shared" si="1"/>
         <v>0.9627</v>
       </c>
       <c r="G12">
-        <f>MAX(G3:G9)</f>
+        <f t="shared" si="1"/>
         <v>0.94030000000000002</v>
       </c>
       <c r="H12">
-        <f>MAX(H3:H9)</f>
+        <f t="shared" si="1"/>
         <v>0.98909999999999998</v>
       </c>
       <c r="I12">
-        <f>MAX(I3:I9)</f>
+        <f t="shared" si="1"/>
         <v>0.98839999999999995</v>
       </c>
     </row>

--- a/results/Protein Embedding.xlsx
+++ b/results/Protein Embedding.xlsx
@@ -2014,7 +2014,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/Protein Embedding.xlsx
+++ b/results/Protein Embedding.xlsx
@@ -2014,7 +2014,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/Protein Embedding.xlsx
+++ b/results/Protein Embedding.xlsx
@@ -2014,7 +2014,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/Protein Embedding.xlsx
+++ b/results/Protein Embedding.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NN Classifier" sheetId="2" r:id="rId1"/>
-    <sheet name="S-VGAE" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="CHI2_test" sheetId="8" r:id="rId2"/>
+    <sheet name="feat_importance_CHI-value" sheetId="9" r:id="rId3"/>
     <sheet name="Skip-GNN" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="61">
   <si>
     <t>Accuracy</t>
   </si>
@@ -113,34 +113,103 @@
     <t>MAX</t>
   </si>
   <si>
-    <t>AAC:</t>
-  </si>
-  <si>
-    <t>DPC:</t>
-  </si>
-  <si>
-    <t>CTD:</t>
-  </si>
-  <si>
-    <t>QSOrder:</t>
-  </si>
-  <si>
-    <t>APAAC:</t>
-  </si>
-  <si>
-    <t>CT:</t>
-  </si>
-  <si>
-    <t>NMBroto:</t>
-  </si>
-  <si>
     <t>Dimensions</t>
   </si>
   <si>
     <t>CTD</t>
   </si>
   <si>
-    <t>Rank</t>
+    <t>New Dim</t>
+  </si>
+  <si>
+    <t>Feature importance threshold &gt;= 100</t>
+  </si>
+  <si>
+    <t>CHI-value</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>DAYM780201.lag25</t>
+  </si>
+  <si>
+    <t>CHAM810101.lag22</t>
+  </si>
+  <si>
+    <t>C (CTDC)</t>
+  </si>
+  <si>
+    <t>T (CTDT)</t>
+  </si>
+  <si>
+    <t>D (CTDD)</t>
+  </si>
+  <si>
+    <t>Pc2.Hydrophobicity.24</t>
+  </si>
+  <si>
+    <t>Pc2.Hydrophilicity.15</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Grantham.Xr.M</t>
+  </si>
+  <si>
+    <t>Schneider.Xr.C</t>
+  </si>
+  <si>
+    <t>g7.g5.g7</t>
+  </si>
+  <si>
+    <t>g7.g7.g7</t>
+  </si>
+  <si>
+    <t>secondarystruct.G1</t>
+  </si>
+  <si>
+    <t>charge.G3</t>
+  </si>
+  <si>
+    <t>hydrophobicity_FASG890101.Tr1331</t>
+  </si>
+  <si>
+    <t>polarity.Tr1221</t>
+  </si>
+  <si>
+    <t>normwaalsvolume.1.residue75</t>
+  </si>
+  <si>
+    <t>hydrophobicity_FASG890101.1.residue100</t>
+  </si>
+  <si>
+    <t>Dim Threshold &gt;= 100</t>
+  </si>
+  <si>
+    <t>Dim Threshold &gt;= 90</t>
+  </si>
+  <si>
+    <t>Dim Threshold &gt;= 80</t>
+  </si>
+  <si>
+    <t>[Ensemble]</t>
+  </si>
+  <si>
+    <t>Dimension &lt;= 100</t>
+  </si>
+  <si>
+    <t>Feature selection on D</t>
   </si>
 </sst>
 </file>
@@ -164,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +264,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -219,11 +330,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -235,10 +445,55 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,11 +502,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FF33CCFF"/>
-      <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1718,15 +1974,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2011,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,7 +2284,754 @@
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="F4">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.93689999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>0.9002</v>
+      </c>
+      <c r="E5">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="G5">
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="H5">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="I5">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="J5">
+        <v>0.93910000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9">
+        <v>100</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.91180000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>240</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.8387</v>
+      </c>
+      <c r="I7">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.84330000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>343</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="I8">
+        <v>0.9476</v>
+      </c>
+      <c r="J8">
+        <v>0.94210000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11">
+        <v>400</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0.66520000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.46189999999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.95179999999999998</v>
+      </c>
+      <c r="J9">
+        <v>0.94779999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>SUM(39+39+195)</f>
+        <v>273</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.4</v>
+      </c>
+      <c r="F10">
+        <v>0.6</v>
+      </c>
+      <c r="G10">
+        <v>0.2</v>
+      </c>
+      <c r="H10">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.67520000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0.5605</v>
+      </c>
+      <c r="E14">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="G14">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="H14">
+        <v>0.59040000000000004</v>
+      </c>
+      <c r="I14">
+        <v>0.56679999999999997</v>
+      </c>
+      <c r="J14">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>400</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>0.51029999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.5323</v>
+      </c>
+      <c r="F15">
+        <v>0.48830000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.3085</v>
+      </c>
+      <c r="H15">
+        <v>0.38590000000000002</v>
+      </c>
+      <c r="I15">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="J15">
+        <v>0.52329999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <f>SUM(39+39+195)</f>
+        <v>273</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.8</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <v>0.4</v>
+      </c>
+      <c r="H16">
+        <v>0.5333</v>
+      </c>
+      <c r="I16">
+        <v>0.50319999999999998</v>
+      </c>
+      <c r="J16">
+        <v>0.49969999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="E17">
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="H17">
+        <v>0.63619999999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.6109</v>
+      </c>
+      <c r="J17">
+        <v>0.54669999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0.56640000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="F18">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="G18">
+        <v>0.55459999999999998</v>
+      </c>
+      <c r="H18">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.5746</v>
+      </c>
+      <c r="J18">
+        <v>0.52010000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>343</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="F19">
+        <v>0.42059999999999997</v>
+      </c>
+      <c r="G19">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="H19">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I19">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="J19">
+        <v>0.5292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>240</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>0.624</v>
+      </c>
+      <c r="E20">
+        <v>0.5857</v>
+      </c>
+      <c r="F20">
+        <v>0.6623</v>
+      </c>
+      <c r="G20">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.60729999999999995</v>
+      </c>
+      <c r="I20">
+        <v>0.6401</v>
+      </c>
+      <c r="J20">
+        <v>0.64139999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>0.56659999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F22">
+        <v>0.46820000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="H22">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="I22">
+        <v>0.57369999999999999</v>
+      </c>
+      <c r="J22">
+        <v>0.5202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>0.51319999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="F23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G23">
+        <v>0.311</v>
+      </c>
+      <c r="H23">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="J23">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <v>0.6</v>
+      </c>
+      <c r="F24">
+        <v>0.4</v>
+      </c>
+      <c r="G24">
+        <v>0.3</v>
+      </c>
+      <c r="H24">
+        <v>0.4</v>
+      </c>
+      <c r="I24">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="J24">
+        <v>0.50690000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>0.57420000000000004</v>
+      </c>
+      <c r="E25">
+        <v>0.62739999999999996</v>
+      </c>
+      <c r="F25">
+        <v>0.52110000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.45369999999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="I25">
+        <v>0.59160000000000001</v>
+      </c>
+      <c r="J25">
+        <v>0.53310000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>0.57020000000000004</v>
+      </c>
+      <c r="E26">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="F26">
+        <v>0.46410000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="H26">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="I26">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="J26">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="E27">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="F27">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="G27">
+        <v>0.39950000000000002</v>
+      </c>
+      <c r="H27">
+        <v>0.43280000000000002</v>
+      </c>
+      <c r="I27">
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="J27">
+        <v>0.50429999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>0.62509999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F28">
+        <v>0.68030000000000002</v>
+      </c>
+      <c r="G28">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="H28">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="J28">
+        <v>0.64159999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -2038,1000 +3041,629 @@
     <col min="20" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="30">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>80</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="O3">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="P3">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="Q3">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="R3">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="S3">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="T3">
+        <v>0.93689999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>0.9002</v>
+      </c>
+      <c r="O4">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="P4">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="Q4">
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="R4">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="S4">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="T4">
+        <v>0.93910000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="31">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.86819999999999997</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.63719999999999999</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.74209999999999998</v>
+      </c>
+      <c r="L5" s="9">
+        <v>100</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0.91180000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="30">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>0.76429999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.70179999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="I6">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J6">
+        <v>0.8528</v>
+      </c>
+      <c r="L6">
+        <v>240</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="O6">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="P6">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="Q6">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="R6">
+        <v>0.8387</v>
+      </c>
+      <c r="S6">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="T6">
+        <v>0.84330000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="30">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>0.90290000000000004</v>
-      </c>
-      <c r="E4">
-        <v>0.92910000000000004</v>
-      </c>
-      <c r="F4">
-        <v>0.87670000000000003</v>
-      </c>
-      <c r="G4">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="H4">
-        <v>0.90539999999999998</v>
-      </c>
-      <c r="I4">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="J4">
-        <v>0.93689999999999996</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>0.9002</v>
-      </c>
-      <c r="E5">
-        <v>0.92510000000000003</v>
-      </c>
-      <c r="F5">
-        <v>0.87529999999999997</v>
-      </c>
-      <c r="G5">
-        <v>0.88149999999999995</v>
-      </c>
-      <c r="H5">
-        <v>0.90269999999999995</v>
-      </c>
-      <c r="I5">
-        <v>0.95830000000000004</v>
-      </c>
-      <c r="J5">
-        <v>0.93910000000000005</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10">
-        <v>100</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.88029999999999997</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.92510000000000003</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.83540000000000003</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.88539999999999996</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.93759999999999999</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.91180000000000005</v>
-      </c>
-      <c r="K6" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>240</v>
-      </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>0.83389999999999997</v>
+        <v>0.79169999999999996</v>
       </c>
       <c r="E7">
-        <v>0.86409999999999998</v>
+        <v>0.69420000000000004</v>
       </c>
       <c r="F7">
-        <v>0.80359999999999998</v>
+        <v>0.88919999999999999</v>
       </c>
       <c r="G7">
-        <v>0.81520000000000004</v>
+        <v>0.86240000000000006</v>
       </c>
       <c r="H7">
-        <v>0.8387</v>
+        <v>0.76919999999999999</v>
       </c>
       <c r="I7">
-        <v>0.88690000000000002</v>
+        <v>0.87560000000000004</v>
       </c>
       <c r="J7">
-        <v>0.84330000000000005</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="L7">
+        <v>343</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="O7">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="P7">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="Q7">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="R7">
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="S7">
+        <v>0.9476</v>
+      </c>
+      <c r="T7">
+        <v>0.94210000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>343</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="30">
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>0.82089999999999996</v>
+        <v>0.8327</v>
       </c>
       <c r="E8">
-        <v>0.91349999999999998</v>
+        <v>0.78739999999999999</v>
       </c>
       <c r="F8">
-        <v>0.72829999999999995</v>
+        <v>0.878</v>
       </c>
       <c r="G8">
-        <v>0.82699999999999996</v>
+        <v>0.86619999999999997</v>
       </c>
       <c r="H8">
-        <v>0.85350000000000004</v>
+        <v>0.82479999999999998</v>
       </c>
       <c r="I8">
-        <v>0.9476</v>
+        <v>0.91539999999999999</v>
       </c>
       <c r="J8">
-        <v>0.94210000000000005</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.91390000000000005</v>
+      </c>
+      <c r="L8" s="5">
+        <v>400</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>0.66520000000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="P8">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.46189999999999998</v>
+      </c>
+      <c r="R8">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="S8">
+        <v>0.95179999999999998</v>
+      </c>
+      <c r="T8">
+        <v>0.94779999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>400</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9" s="11"/>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>0.66520000000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.56950000000000001</v>
-      </c>
-      <c r="F9">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="G9">
-        <v>0.46189999999999998</v>
-      </c>
-      <c r="H9">
-        <v>0.49890000000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.95179999999999998</v>
-      </c>
-      <c r="J9">
-        <v>0.94779999999999998</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="L9">
         <f>SUM(39+39+195)</f>
         <v>273</v>
       </c>
-      <c r="C10" t="s">
+      <c r="M9" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
+      <c r="N9">
         <v>0.5</v>
       </c>
-      <c r="E10">
+      <c r="O9">
         <v>0.4</v>
       </c>
-      <c r="F10">
+      <c r="P9">
         <v>0.6</v>
       </c>
-      <c r="G10">
+      <c r="Q9">
         <v>0.2</v>
       </c>
-      <c r="H10">
+      <c r="R9">
         <v>0.26669999999999999</v>
       </c>
-      <c r="I10">
+      <c r="S9">
         <v>0.67520000000000002</v>
       </c>
-      <c r="J10">
+      <c r="T9">
         <v>0.64100000000000001</v>
       </c>
-      <c r="K10">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14">
-        <v>0.5605</v>
-      </c>
-      <c r="E14">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="F14">
-        <v>0.48209999999999997</v>
-      </c>
-      <c r="G14">
-        <v>0.55120000000000002</v>
-      </c>
-      <c r="H14">
-        <v>0.59040000000000004</v>
-      </c>
-      <c r="I14">
-        <v>0.56679999999999997</v>
-      </c>
-      <c r="J14">
-        <v>0.51500000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="32">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.84389999999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.82330000000000003</v>
+      </c>
+      <c r="G16">
+        <v>0.82740000000000002</v>
+      </c>
+      <c r="H16">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="I16">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.87960000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="32">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="E17">
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.8861</v>
+      </c>
+      <c r="G17">
+        <v>0.8851</v>
+      </c>
+      <c r="H17">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.95269999999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.94950000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B15">
-        <v>400</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B18" s="32">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>0.51029999999999998</v>
-      </c>
-      <c r="E15">
-        <v>0.5323</v>
-      </c>
-      <c r="F15">
-        <v>0.48830000000000001</v>
-      </c>
-      <c r="G15">
-        <v>0.3085</v>
-      </c>
-      <c r="H15">
-        <v>0.38590000000000002</v>
-      </c>
-      <c r="I15">
-        <v>0.53690000000000004</v>
-      </c>
-      <c r="J15">
-        <v>0.52329999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D18" s="32">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="E18">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="F18">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="G18">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="H18">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="I18">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="J18">
+        <v>0.91559999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B16">
-        <f>SUM(39+39+195)</f>
-        <v>273</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B19" s="32">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>0.5</v>
       </c>
-      <c r="E16">
-        <v>0.8</v>
-      </c>
-      <c r="F16">
-        <v>0.2</v>
-      </c>
-      <c r="G16">
+      <c r="E19">
+        <v>0.6</v>
+      </c>
+      <c r="F19">
         <v>0.4</v>
       </c>
-      <c r="H16">
-        <v>0.5333</v>
-      </c>
-      <c r="I16">
-        <v>0.50319999999999998</v>
-      </c>
-      <c r="J16">
-        <v>0.49969999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>0.59440000000000004</v>
-      </c>
-      <c r="E17">
-        <v>0.71479999999999999</v>
-      </c>
-      <c r="F17">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="G17">
-        <v>0.57620000000000005</v>
-      </c>
-      <c r="H17">
-        <v>0.63619999999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.6109</v>
-      </c>
-      <c r="J17">
-        <v>0.54669999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>0.56640000000000001</v>
-      </c>
-      <c r="E18">
-        <v>0.67579999999999996</v>
-      </c>
-      <c r="F18">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="G18">
-        <v>0.55459999999999998</v>
-      </c>
-      <c r="H18">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.5746</v>
-      </c>
-      <c r="J18">
-        <v>0.52010000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>343</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>0.50290000000000001</v>
-      </c>
-      <c r="E19">
-        <v>0.58520000000000005</v>
-      </c>
-      <c r="F19">
-        <v>0.42059999999999997</v>
-      </c>
       <c r="G19">
-        <v>0.40250000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="H19">
-        <v>0.47199999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="I19">
-        <v>0.53600000000000003</v>
+        <v>0.60060000000000002</v>
       </c>
       <c r="J19">
-        <v>0.5292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>240</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>0.624</v>
-      </c>
-      <c r="E20">
-        <v>0.5857</v>
-      </c>
-      <c r="F20">
-        <v>0.6623</v>
-      </c>
-      <c r="G20">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.60729999999999995</v>
-      </c>
-      <c r="I20">
-        <v>0.6401</v>
-      </c>
-      <c r="J20">
-        <v>0.64139999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>0.56659999999999999</v>
-      </c>
-      <c r="E22">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="F22">
-        <v>0.46820000000000001</v>
-      </c>
-      <c r="G22">
-        <v>0.55559999999999998</v>
-      </c>
-      <c r="H22">
-        <v>0.60540000000000005</v>
-      </c>
-      <c r="I22">
-        <v>0.57369999999999999</v>
-      </c>
-      <c r="J22">
-        <v>0.5202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>0.51319999999999999</v>
-      </c>
-      <c r="E23">
-        <v>0.45650000000000002</v>
-      </c>
-      <c r="F23">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G23">
-        <v>0.311</v>
-      </c>
-      <c r="H23">
-        <v>0.36480000000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.54159999999999997</v>
-      </c>
-      <c r="J23">
-        <v>0.52300000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24">
-        <v>0.5</v>
-      </c>
-      <c r="E24">
-        <v>0.6</v>
-      </c>
-      <c r="F24">
-        <v>0.4</v>
-      </c>
-      <c r="G24">
-        <v>0.3</v>
-      </c>
-      <c r="H24">
-        <v>0.4</v>
-      </c>
-      <c r="I24">
-        <v>0.51259999999999994</v>
-      </c>
-      <c r="J24">
-        <v>0.50690000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25">
-        <v>0.57420000000000004</v>
-      </c>
-      <c r="E25">
-        <v>0.62739999999999996</v>
-      </c>
-      <c r="F25">
-        <v>0.52110000000000001</v>
-      </c>
-      <c r="G25">
-        <v>0.45369999999999999</v>
-      </c>
-      <c r="H25">
-        <v>0.52649999999999997</v>
-      </c>
-      <c r="I25">
-        <v>0.59160000000000001</v>
-      </c>
-      <c r="J25">
-        <v>0.53310000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26">
-        <v>0.57020000000000004</v>
-      </c>
-      <c r="E26">
-        <v>0.67620000000000002</v>
-      </c>
-      <c r="F26">
-        <v>0.46410000000000001</v>
-      </c>
-      <c r="G26">
-        <v>0.55779999999999996</v>
-      </c>
-      <c r="H26">
-        <v>0.61109999999999998</v>
-      </c>
-      <c r="I26">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="J26">
-        <v>0.52300000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27">
-        <v>0.49930000000000002</v>
-      </c>
-      <c r="E27">
-        <v>0.47310000000000002</v>
-      </c>
-      <c r="F27">
-        <v>0.52559999999999996</v>
-      </c>
-      <c r="G27">
-        <v>0.39950000000000002</v>
-      </c>
-      <c r="H27">
-        <v>0.43280000000000002</v>
-      </c>
-      <c r="I27">
-        <v>0.51180000000000003</v>
-      </c>
-      <c r="J27">
-        <v>0.50429999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28">
-        <v>0.62509999999999999</v>
-      </c>
-      <c r="E28">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F28">
-        <v>0.68030000000000002</v>
-      </c>
-      <c r="G28">
-        <v>0.64129999999999998</v>
-      </c>
-      <c r="H28">
-        <v>0.60289999999999999</v>
-      </c>
-      <c r="I28">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="J28">
-        <v>0.64159999999999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A4:K10">
-    <sortCondition ref="K4:K10"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>400</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <f>SUM(39+39+195)</f>
-        <v>273</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>343</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>240</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>400</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <f>SUM(39+39+195)</f>
-        <v>273</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>343</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>240</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3040,198 +3672,369 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H7"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B1">
-        <v>0.5605</v>
-      </c>
-      <c r="C1">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="D1">
-        <v>0.48209999999999997</v>
-      </c>
-      <c r="E1">
-        <v>0.55120000000000002</v>
-      </c>
-      <c r="F1">
-        <v>0.59040000000000004</v>
-      </c>
-      <c r="G1">
-        <v>0.56679999999999997</v>
-      </c>
-      <c r="H1">
-        <v>0.51500000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <v>0.51029999999999998</v>
-      </c>
-      <c r="C2">
-        <v>0.5323</v>
-      </c>
-      <c r="D2">
-        <v>0.48830000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.3085</v>
-      </c>
-      <c r="F2">
-        <v>0.38590000000000002</v>
-      </c>
-      <c r="G2">
-        <v>0.53690000000000004</v>
-      </c>
-      <c r="H2">
-        <v>0.52329999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>0.8</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>0.4</v>
-      </c>
-      <c r="F3">
-        <v>0.5333</v>
-      </c>
-      <c r="G3">
-        <v>0.50319999999999998</v>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="E3" s="18">
+        <v>439.17899999999997</v>
+      </c>
+      <c r="F3" s="33">
+        <v>80</v>
+      </c>
+      <c r="G3" s="19">
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>0.49969999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>0.59440000000000004</v>
-      </c>
-      <c r="C4">
-        <v>0.71479999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="E4">
-        <v>0.57620000000000005</v>
-      </c>
-      <c r="F4">
-        <v>0.63619999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.6109</v>
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1.286</v>
+      </c>
+      <c r="E4" s="14">
+        <v>280.483</v>
+      </c>
+      <c r="F4" s="34">
+        <v>20</v>
+      </c>
+      <c r="G4" s="19">
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0.54669999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>0.56640000000000001</v>
-      </c>
-      <c r="C5">
-        <v>0.67579999999999996</v>
-      </c>
-      <c r="D5">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="E5">
-        <v>0.55459999999999998</v>
-      </c>
-      <c r="F5">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.5746</v>
-      </c>
-      <c r="H5">
-        <v>0.52010000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="E5" s="14">
+        <v>256.50299999999999</v>
+      </c>
+      <c r="F5" s="34">
+        <v>100</v>
+      </c>
+      <c r="G5" s="19">
+        <v>4</v>
+      </c>
+      <c r="H5" s="19">
+        <v>4</v>
+      </c>
+      <c r="I5" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E6" s="14">
+        <v>550.92100000000005</v>
+      </c>
+      <c r="F6" s="34">
+        <v>240</v>
+      </c>
+      <c r="G6" s="19">
+        <v>9</v>
+      </c>
+      <c r="H6" s="19">
+        <v>9</v>
+      </c>
+      <c r="I6" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.224</v>
+      </c>
+      <c r="E7" s="14">
+        <v>316.13299999999998</v>
+      </c>
+      <c r="F7" s="34">
+        <v>343</v>
+      </c>
+      <c r="G7" s="19">
+        <f xml:space="preserve"> 14-3</f>
+        <v>11</v>
+      </c>
+      <c r="H7" s="19">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <f xml:space="preserve"> 14+7</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6">
-        <v>0.50290000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.58520000000000005</v>
-      </c>
-      <c r="D6">
-        <v>0.42059999999999997</v>
-      </c>
-      <c r="E6">
-        <v>0.40250000000000002</v>
-      </c>
-      <c r="F6">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="G6">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="H6">
-        <v>0.5292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7">
-        <v>0.624</v>
-      </c>
-      <c r="C7">
-        <v>0.5857</v>
-      </c>
-      <c r="D7">
-        <v>0.6623</v>
-      </c>
-      <c r="E7">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.60729999999999995</v>
-      </c>
-      <c r="G7">
-        <v>0.6401</v>
-      </c>
-      <c r="H7">
-        <v>0.64139999999999997</v>
+      <c r="D8" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1036.585</v>
+      </c>
+      <c r="F8" s="34">
+        <v>400</v>
+      </c>
+      <c r="G8" s="19">
+        <f>H8-6</f>
+        <v>36</v>
+      </c>
+      <c r="H8" s="19">
+        <v>42</v>
+      </c>
+      <c r="I8" s="19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="34">
+        <f>SUM(39+39+195)</f>
+        <v>273</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="13">
+        <v>4.7160000000000002</v>
+      </c>
+      <c r="E10" s="14">
+        <v>226.90899999999999</v>
+      </c>
+      <c r="F10" s="34">
+        <v>39</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E11" s="14">
+        <v>440.90300000000002</v>
+      </c>
+      <c r="F11" s="34">
+        <v>39</v>
+      </c>
+      <c r="G11" s="19">
+        <v>3</v>
+      </c>
+      <c r="H11" s="19">
+        <v>3</v>
+      </c>
+      <c r="I11" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="15">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E12" s="16">
+        <v>420.48500000000001</v>
+      </c>
+      <c r="F12" s="35">
+        <v>195</v>
+      </c>
+      <c r="G12" s="19">
+        <v>10</v>
+      </c>
+      <c r="H12" s="19">
+        <v>11</v>
+      </c>
+      <c r="I12" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="11">
+        <f>SUM(G3:G12)</f>
+        <v>80</v>
+      </c>
+      <c r="H13" s="11">
+        <f>SUM(H3:H12)</f>
+        <v>92</v>
+      </c>
+      <c r="I13" s="11">
+        <f>SUM(I3:I12)</f>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3239,8 +4042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
